--- a/xlsx/华盛顿州_intext.xlsx
+++ b/xlsx/华盛顿州_intext.xlsx
@@ -15,2187 +15,2178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
   <si>
     <t>华盛顿州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>华盛顿</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>华盛顿州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%B7%9E%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>华盛顿州州徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥林匹亚 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
+  </si>
+  <si>
+    <t>西雅图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>瑞尼尔山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%B7%9E%E9%95%BF</t>
+  </si>
+  <si>
+    <t>华盛顿州州长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E4%BC%8A%C2%B7%E8%8B%B1%E6%96%AF%E5%88%A9</t>
+  </si>
+  <si>
+    <t>杰伊·英斯利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%89%AF%E5%B7%9E%E9%95%BF</t>
+  </si>
+  <si>
+    <t>华盛顿州副州长</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brad_Owen</t>
+  </si>
+  <si>
+    <t>en-Brad Owen</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Washington</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Washington</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E8%92%82%C2%B7%E8%8E%AB%E7%91%9E</t>
+  </si>
+  <si>
+    <t>派蒂·莫瑞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E4%BA%9E%C2%B7%E5%9D%8E%E7%89%B9%E5%A8%81%E7%88%BE</t>
+  </si>
+  <si>
+    <t>玛丽亚·坎特威尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Washington</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Washington</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>太平洋时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-8</t>
+  </si>
+  <si>
+    <t>UTC-8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
+  </si>
+  <si>
+    <t>UTC-7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国太平洋沿岸地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>不列颠哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>乔治·华盛顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>华盛顿州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%BE%B7%E7%91%9E%E5%85%8B</t>
+  </si>
+  <si>
+    <t>法兰西斯·德瑞克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>贸易</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mart%C3%ADn_de_Aguilar</t>
+  </si>
+  <si>
+    <t>en-Martín de Aguilar</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>哥伦比亚河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>北冰洋</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bruno_de_Heceta</t>
+  </si>
+  <si>
+    <t>en-Bruno de Heceta</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Juan_Francisco_de_la_Bodega_y_Quadra</t>
+  </si>
+  <si>
+    <t>en-Juan Francisco de la Bodega y Quadra</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Point_Grenville</t>
+  </si>
+  <si>
+    <t>en-Point Grenville</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%A0%BC%E9%9B%B7_(%E6%8E%A2%E9%99%A9%E5%AE%B6)</t>
+  </si>
+  <si>
+    <t>罗伯特·格雷 (探险家)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/North_West_Company</t>
+  </si>
+  <si>
+    <t>en-North West Company</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/David_Thompson_(explorer)</t>
+  </si>
+  <si>
+    <t>en-David Thompson (explorer)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%87%8C%E9%9F%A6%E7%91%9F%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>梅里韦瑟·刘易斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%85%8B%E6%8B%89%E5%85%8B_(%E6%8E%A2%E9%99%A9%E5%AE%B6)</t>
+  </si>
+  <si>
+    <t>威廉·克拉克 (探险家)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>皮革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%A2%E5%9D%8E_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>斯波坎 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pacific_Fur_Company</t>
+  </si>
+  <si>
+    <t>en-Pacific Fur Company</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fort_Astoria</t>
+  </si>
+  <si>
+    <t>en-Fort Astoria</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fort_Okanogan</t>
+  </si>
+  <si>
+    <t>en-Fort Okanogan</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%97%E5%AD%99%E6%B9%BE%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>哈得孙湾公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%93%A5%E5%8D%8E%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>温哥华堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%A7%91%E9%A9%AC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>塔科马 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣路易斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%9D%88%E6%BC%A2</t>
+  </si>
+  <si>
+    <t>贝灵汉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%8B%89%E7%93%A6%E6%8B%89_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>瓦拉瓦拉 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E6%AF%92</t>
+  </si>
+  <si>
+    <t>病毒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>天花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%AF%AF</t>
+  </si>
+  <si>
+    <t>毛毯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%80%8A%E6%B9%BE%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>哈德逊湾公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%8C%84</t>
+  </si>
+  <si>
+    <t>雪茄</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Whitman_massacre</t>
+  </si>
+  <si>
+    <t>en-Whitman massacre</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cayuse_War</t>
+  </si>
+  <si>
+    <t>en-Cayuse War</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Battle_of_Seattle_(1856)</t>
+  </si>
+  <si>
+    <t>en-Battle of Seattle (1856)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>温哥华 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>金县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%AF%BA%E9%9C%8D%E7%B1%B3%E4%BB%80%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>斯诺霍米什县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%A2%E5%9D%8E%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>斯波坎县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%B0%94%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>皮尔斯县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E6%96%AF%E9%A1%BF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>瑟斯顿县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%B2%99%E6%99%AE%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>基沙普县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%B0%E5%8E%BF</t>
+  </si>
+  <si>
+    <t>艾兰县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>克拉克县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BA%BA%E7%A7%8D</t>
+  </si>
+  <si>
+    <t>高加索人种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94</t>
+  </si>
+  <si>
+    <t>拉丁裔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>亚裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>非裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%96%AF%E5%96%80%E7%89%B9%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>喀斯喀特山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>冰河时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E7%B4%8D%E5%A5%87</t>
+  </si>
+  <si>
+    <t>韦纳奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%9F%BA%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>雅基马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E6%B2%92%E5%B8%B6</t>
+  </si>
+  <si>
+    <t>隐没带</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%BE%B7%E5%AF%8C%E5%8D%A1%E6%9D%BF%E5%A1%8A</t>
+  </si>
+  <si>
+    <t>胡安·德富卡板块</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2%E6%9D%BF%E5%A1%8A</t>
+  </si>
+  <si>
+    <t>北美洲板块</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>阿拉斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%B5%B7%E4%BC%A6%E7%81%AB%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>圣海伦火山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>贝克山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E7%81%AB%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>活火山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>白令海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E6%B0%A3%E5%A3%93</t>
+  </si>
+  <si>
+    <t>低气压</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E7%B7%9A</t>
+  </si>
+  <si>
+    <t>雪线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B3%8A</t>
+  </si>
+  <si>
+    <t>湖泊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
+  </si>
+  <si>
+    <t>岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AA%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>溪谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96</t>
+  </si>
+  <si>
+    <t>五大湖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>奥林匹克国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
+  </si>
+  <si>
+    <t>瑞尼尔山国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%96%80%E6%96%AF%E5%96%80%E7%89%B9%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>北喀斯喀特国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3</t>
+  </si>
+  <si>
+    <t>波音</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
+  </si>
+  <si>
+    <t>芝加哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
+  </si>
+  <si>
+    <t>软体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E5%A4%A9%E5%A0%82</t>
+  </si>
+  <si>
+    <t>任天堂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E8%92%99%E5%BE%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>雷德蒙德 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%A9%AC%E9%80%8A%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>亚马逊公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%B7%B4%E5%85%8B</t>
+  </si>
+  <si>
+    <t>星巴克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Amazon.com</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/AQuantive</t>
+  </si>
+  <si>
+    <t>AQuantive</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E7%BB%B4%E5%B0%A4_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>贝尔维尤 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BC%97%E9%87%8C%E7%89%B9_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>埃弗里特 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%91%9F%E9%98%94_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>伊瑟阔 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%99%AF%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>长景市 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%96%A9%E7%88%BE_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>巴萨尔 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%89%B9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>肯特 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%81%B5%E5%8E%84%E5%A7%86_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>贝灵厄姆 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E5%B0%94</t>
+  </si>
+  <si>
+    <t>英特尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%82%A6_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>杜邦 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%99%95%E7%90%86%E5%99%A8</t>
+  </si>
+  <si>
+    <t>中央处理器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E4%B8%81%E7%B6%AD%E7%88%BE_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>伍丁维尔 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%94%E6%96%AF%E6%B3%A2_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>波尔斯波 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A5%8E%E5%8E%84%E5%A7%86_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>霍奎厄姆 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E6%B8%AF%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>橡港市 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%BE%B7%E5%8B%92%E5%B0%94%E9%9F%A6_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>费德勒尔韦 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%AE%A3%E6%98%8E%E6%9C%83</t>
+  </si>
+  <si>
+    <t>世界宣明会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E7%B6%AD%E5%B0%A4_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E8%92%99</t>
+  </si>
+  <si>
+    <t>雷德蒙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%AF%E4%B8%81_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>阿伯丁 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BC%97%E9%9B%B7%E7%89%B9</t>
+  </si>
+  <si>
+    <t>埃弗雷特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9F%8E_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>三城 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%BB%98%E9%A0%93</t>
+  </si>
+  <si>
+    <t>布雷默顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E6%A3%AE%E6%B8%AF_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>汤森港 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>华盛顿大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>华盛顿州立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>中央华盛顿大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>西北大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9B%BE%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>西雅图大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E4%B8%81%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>圣马丁学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%EF%BC%8D%E5%A1%94%E7%A7%91%E9%A6%AC%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>西雅图－塔科马国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>阿拉斯加航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/5%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E6%AE%B5</t>
+  </si>
+  <si>
+    <t>5号州际公路华盛顿州段</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/205%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF_(%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E5%92%8C%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>205号州际公路 (俄勒冈州和华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/405%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>405号州际公路 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/705%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>705号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/101%E5%8F%B7%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%81%93%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E6%AE%B5</t>
+  </si>
+  <si>
+    <t>101号美国国道华盛顿州段</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NFL</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B5%B7%E9%B7%B9</t>
+  </si>
+  <si>
+    <t>西雅图海鹰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B5%B7%E7%81%A3%E8%80%85</t>
+  </si>
+  <si>
+    <t>西雅图海湾者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>美国职棒大联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MLB</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
+  </si>
+  <si>
+    <t>西雅图水手</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
+  </si>
+  <si>
+    <t>亚利桑那响尾蛇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
+  </si>
+  <si>
+    <t>德克萨斯游骑兵 (棒球)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
+  </si>
+  <si>
+    <t>科罗拉多洛矶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/WNBA</t>
+  </si>
+  <si>
+    <t>WNBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E9%A2%A8%E6%9A%B4</t>
+  </si>
+  <si>
+    <t>西雅图风暴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E9%87%8E%E7%81%AB</t>
+  </si>
+  <si>
+    <t>2015年华盛顿州野火</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Washington</t>
+  </si>
+  <si>
+    <t>Template talk-Washington</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>华盛顿州城市列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>华盛顿州地方政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%90%89%E7%89%B9%E6%B5%B7%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>普吉特海湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%83%A1%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>圣胡安群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E9%AB%98%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>哥伦比亚高原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8D%A1%E8%AB%BE%E6%A0%B9%E7%B8%A3</t>
+  </si>
+  <si>
+    <t>奥卡诺根县</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E6%B2%B3%E5%B3%A1%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>哥伦比亚河峡谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%9F%BA%E9%A9%AC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>亚基马 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BA%B3%E7%A7%91%E7%89%B9%E6%96%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>阿纳科特斯 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%81%B5%E9%A1%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>阿灵顿 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9C%AC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥本 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B8%83%E9%87%8C%E5%A5%87%E5%B3%B6_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>班布里奇岛 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E7%88%BE%E6%A0%BC%E6%9C%97%E5%BE%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>巴特尔格朗德 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%B0%BC%E6%B9%96_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>邦尼湖 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%BB%98%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%81%A9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>布里恩 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%BB%98%E6%96%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>卡默斯 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E7%89%B9%E5%8B%92%E5%88%A9%E4%BA%9A_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>森特勒利亚 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E5%B0%BC_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>切尼 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%9F%83%E5%8B%92%E5%A7%86_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>克利埃勒姆 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B8%A9%E9%A1%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>卡温顿 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E6%A2%85%E5%9B%A0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>得梅因 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%9F%8B%E7%B4%8D%E5%A5%87_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>东韦纳奇 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%E5%85%B9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>埃德蒙兹 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E4%BC%A6%E6%96%AF%E5%A0%A1_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>埃伦斯堡 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%BA%B3%E5%A7%86%E5%85%8B%E6%B4%9B_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>伊纳姆克洛 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E7%B6%AD%E5%B0%A4_(%E8%8F%AF%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>格兰德维尤 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%B4%A2_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>凯尔索 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E8%8E%AB%E5%B0%94_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>肯莫尔 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%BA%B3%E5%A8%81%E5%85%8B_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>肯纳威克 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%85%8B%E5%85%B0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>柯克兰 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E8%A5%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>莱西 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%9E%97%E5%85%AC%E5%9C%92%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>湖林公园市 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%B8%9D%E6%96%87%E6%96%AF%E6%B9%96_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>史帝文斯湖 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E5%85%8B%E4%BC%8D%E5%BE%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>莱克伍德 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%87%8C_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>兰里 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%81_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>林丁 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%BC%8D%E5%BE%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>林伍德 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%B8%83%E9%A0%93_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>麦布顿 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%93%E6%A8%B9%E8%B0%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>枫树谷 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>马里斯维尔 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E7%91%9F%E5%B3%B6_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>默瑟岛 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E5%85%8B%E9%87%8C%E5%85%8B_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>米尔克里克 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E7%BD%97_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>门罗 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%E6%B9%96%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>摩西湖市 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%86%9C%E5%B1%B1_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>弗农山 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E7%89%B9%E8%8E%B1%E5%85%8B%E6%B3%B0%E5%8B%92%E6%96%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>芒特莱克泰勒斯 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%A7%91%E5%B0%94%E8%92%82%E5%A5%A5_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>马科尔蒂奥 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B8%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>新港 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E7%A7%91_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>帕斯科 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E5%88%A9%E6%96%AF%E6%B8%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>安吉利斯港 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9F%A5%E5%BE%B7%E6%B8%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥查德港 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%91%9F_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>普罗瑟 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%B0%94%E6%9B%BC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>普尔曼 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E9%98%BF%E6%8B%89%E6%99%AE_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>皮阿拉普 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E9%A1%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>伦顿 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%87%E5%85%B0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>里奇兰 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E9%A9%AC%E7%B1%B3%E4%BB%80_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>瑟马米什 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%94%E7%A7%91_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>西塔科 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%BE%B7%E7%BE%85-%E4%BC%8D%E5%88%A9_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>世德罗-伍利 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>细拉 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E7%88%BE%E9%A0%93_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>雪尔顿 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B2%B8%E7%B7%9A%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>岸线市 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%A2%E5%9D%8E%E8%B0%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>斯波坎谷 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%B0%BC%E8%B3%BD%E5%BE%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>桑尼赛德 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%9C%AC%E5%B0%BC%E8%A8%B1_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>塔本尼许 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%8B%E7%B6%AD%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>塔克维拉 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A7%86%E6%B2%83%E7%89%B9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>塔姆沃特 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%9F%8E_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>大学城 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B8%95%E6%89%98_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>瓦帕托 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E4%BC%91%E6%88%88_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>瓦休戈 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E5%A5%87%E5%85%B0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>西里奇兰 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E7%BA%B3%E5%A5%87_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>韦纳奇 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>齐拉 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>亚当斯县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B4%A2%E5%BB%B7%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>阿索廷县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%A0%93%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>本顿县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%85%B0%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奇兰县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%8B%92%E5%A7%86%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>克拉勒姆县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>哥伦比亚县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%88%A9%E8%8C%A8%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>考利茨县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>道格拉斯县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E9%87%8C%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>费里县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>富兰克林县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>加菲尔德县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E7%89%B9%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>格兰特县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E6%96%AF%E6%B8%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>格雷斯港县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%B0%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>艾兰县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>杰佛逊县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%B2%99%E6%99%AE%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>基沙普县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%92%82%E5%A1%94%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>基蒂塔斯县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%9F%BA%E5%A1%94%E7%89%B9%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>克利基塔特县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>刘易斯县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>林肯县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A3%AE%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>梅森县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8D%A1%E8%AF%BA%E6%A0%B9%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥卡诺根县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%A5%BF%E8%8F%B2%E5%85%8B%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>帕西菲克县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%9E%E5%A4%9A%E9%9B%B7%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>庞多雷县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%83%A1%E5%AE%89%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣胡安县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%8D%A1%E5%90%89%E7%89%B9%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>斯卡吉特县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%8D%A1%E6%A2%85%E5%B0%BC%E4%BA%9A%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>斯卡梅尼亚县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>史蒂文斯县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%9F%BA%E4%BA%9A%E5%9D%8E%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>沃基亚坎县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%89%B9%E7%A7%91%E5%A7%86%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>霍特科姆县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E6%9B%BC%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>惠特曼县 (华盛顿州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>华盛顿</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>华盛顿州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%B7%9E%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>华盛顿州州徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奧林匹亞 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
-  </si>
-  <si>
-    <t>西雅圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>瑞尼爾山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%B7%9E%E9%95%BF</t>
-  </si>
-  <si>
-    <t>华盛顿州州长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E4%BC%8A%C2%B7%E8%8B%B1%E6%96%AF%E5%88%A9</t>
-  </si>
-  <si>
-    <t>杰伊·英斯利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>民主黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%89%AF%E5%B7%9E%E9%95%BF</t>
-  </si>
-  <si>
-    <t>华盛顿州副州长</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brad_Owen</t>
-  </si>
-  <si>
-    <t>en-Brad Owen</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Washington</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Washington</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E8%92%82%C2%B7%E8%8E%AB%E7%91%9E</t>
-  </si>
-  <si>
-    <t>派蒂·莫瑞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%BA%97%E4%BA%9E%C2%B7%E5%9D%8E%E7%89%B9%E5%A8%81%E7%88%BE</t>
-  </si>
-  <si>
-    <t>瑪麗亞·坎特威爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Washington</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Washington</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>太平洋时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-8</t>
-  </si>
-  <si>
-    <t>UTC-8</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-7</t>
-  </si>
-  <si>
-    <t>UTC-7</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%B2%BF%E5%B2%B8%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國太平洋沿岸地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>不列顛哥倫比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒岡州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>愛達荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%8D%8E%E7%9B%9B%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>乔治·华盛顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>华盛顿州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%C2%B7%E5%BE%B7%E7%91%9E%E5%85%8B</t>
-  </si>
-  <si>
-    <t>法蘭西斯·德瑞克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>貿易</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mart%C3%ADn_de_Aguilar</t>
-  </si>
-  <si>
-    <t>en-Martín de Aguilar</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>哥倫比亞河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>北冰洋</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bruno_de_Heceta</t>
-  </si>
-  <si>
-    <t>en-Bruno de Heceta</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Juan_Francisco_de_la_Bodega_y_Quadra</t>
-  </si>
-  <si>
-    <t>en-Juan Francisco de la Bodega y Quadra</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Point_Grenville</t>
-  </si>
-  <si>
-    <t>en-Point Grenville</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%A0%BC%E9%9B%B7_(%E6%8E%A2%E9%99%A9%E5%AE%B6)</t>
-  </si>
-  <si>
-    <t>罗伯特·格雷 (探险家)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/North_West_Company</t>
-  </si>
-  <si>
-    <t>en-North West Company</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/David_Thompson_(explorer)</t>
-  </si>
-  <si>
-    <t>en-David Thompson (explorer)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%87%8C%E9%9F%A6%E7%91%9F%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>梅里韦瑟·刘易斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%85%8B%E6%8B%89%E5%85%8B_(%E6%8E%A2%E9%99%A9%E5%AE%B6)</t>
-  </si>
-  <si>
-    <t>威廉·克拉克 (探险家)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>皮革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%A2%E5%9D%8E_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>斯波坎 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pacific_Fur_Company</t>
-  </si>
-  <si>
-    <t>en-Pacific Fur Company</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Fort_Astoria</t>
-  </si>
-  <si>
-    <t>en-Fort Astoria</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Fort_Okanogan</t>
-  </si>
-  <si>
-    <t>en-Fort Okanogan</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%97%E5%AD%99%E6%B9%BE%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>哈得孙湾公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%93%A5%E5%8D%8E%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>温哥华堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E7%A7%91%E9%A9%AC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>塔科马 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖路易斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%9D%88%E6%BC%A2</t>
-  </si>
-  <si>
-    <t>貝靈漢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E6%8B%89%E7%93%A6%E6%8B%89_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>瓦拉瓦拉 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E6%AF%92</t>
-  </si>
-  <si>
-    <t>病毒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>天花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%AF%AF</t>
-  </si>
-  <si>
-    <t>毛毯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%80%8A%E6%B9%BE%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>哈德逊湾公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%8C%84</t>
-  </si>
-  <si>
-    <t>雪茄</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Whitman_massacre</t>
-  </si>
-  <si>
-    <t>en-Whitman massacre</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cayuse_War</t>
-  </si>
-  <si>
-    <t>en-Cayuse War</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Battle_of_Seattle_(1856)</t>
-  </si>
-  <si>
-    <t>en-Battle of Seattle (1856)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>溫哥華 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美國參議院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>金县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%AF%BA%E9%9C%8D%E7%B1%B3%E4%BB%80%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>斯诺霍米什县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%A2%E5%9D%8E%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>斯波坎縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%B0%94%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>皮尔斯县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E6%96%AF%E9%A1%BF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>瑟斯顿县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%B2%99%E6%99%AE%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>基沙普縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%B0%E5%8E%BF</t>
-  </si>
-  <si>
-    <t>艾兰县</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>克拉克县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2%E4%BA%BA%E7%A7%8D</t>
-  </si>
-  <si>
-    <t>高加索人种</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94</t>
-  </si>
-  <si>
-    <t>拉丁裔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>亞裔美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>非裔美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%96%AF%E5%96%80%E7%89%B9%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>喀斯喀特山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>冰河時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E7%B4%8D%E5%A5%87</t>
-  </si>
-  <si>
-    <t>韋納奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%9F%BA%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>雅基馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E6%B2%92%E5%B8%B6</t>
-  </si>
-  <si>
-    <t>隱沒帶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E5%BE%B7%E5%AF%8C%E5%8D%A1%E6%9D%BF%E5%A1%8A</t>
-  </si>
-  <si>
-    <t>胡安·德富卡板塊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2%E6%9D%BF%E5%A1%8A</t>
-  </si>
-  <si>
-    <t>北美洲板塊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>阿拉斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%B5%B7%E4%BC%A6%E7%81%AB%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>圣海伦火山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>貝克山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E7%81%AB%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>活火山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>白令海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E6%B0%A3%E5%A3%93</t>
-  </si>
-  <si>
-    <t>低氣壓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E7%B7%9A</t>
-  </si>
-  <si>
-    <t>雪線</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B3%8A</t>
-  </si>
-  <si>
-    <t>湖泊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
-  </si>
-  <si>
-    <t>島嶼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AA%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>溪谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96</t>
-  </si>
-  <si>
-    <t>五大湖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>奧林匹克國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%B0%BC%E7%88%BE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
-  </si>
-  <si>
-    <t>瑞尼爾山國家公園</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%96%80%E6%96%AF%E5%96%80%E7%89%B9%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>北喀斯喀特国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>飛機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3</t>
-  </si>
-  <si>
-    <t>波音</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
-  </si>
-  <si>
-    <t>芝加哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
-  </si>
-  <si>
-    <t>電腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
-  </si>
-  <si>
-    <t>軟體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
-  </si>
-  <si>
-    <t>微軟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E5%A4%A9%E5%A0%82</t>
-  </si>
-  <si>
-    <t>任天堂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E8%92%99%E5%BE%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>雷德蒙德 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%A9%AC%E9%80%8A%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>亚马逊公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%B7%B4%E5%85%8B</t>
-  </si>
-  <si>
-    <t>星巴克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Amazon.com</t>
-  </si>
-  <si>
-    <t>Amazon.com</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/AQuantive</t>
-  </si>
-  <si>
-    <t>AQuantive</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E7%BB%B4%E5%B0%A4_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>贝尔维尤 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BC%97%E9%87%8C%E7%89%B9_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>埃弗里特 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%91%9F%E9%98%94_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>伊瑟阔 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%99%AF%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>長景市 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%96%A9%E7%88%BE_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>巴薩爾 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%89%B9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>肯特 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E7%81%B5%E5%8E%84%E5%A7%86_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>贝灵厄姆 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E5%B0%94</t>
-  </si>
-  <si>
-    <t>英特尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%82%A6_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>杜邦 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%99%95%E7%90%86%E5%99%A8</t>
-  </si>
-  <si>
-    <t>中央處理器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E4%B8%81%E7%B6%AD%E7%88%BE_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>伍丁維爾 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%94%E6%96%AF%E6%B3%A2_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>波尔斯波 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
-  </si>
-  <si>
-    <t>咖啡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%A5%8E%E5%8E%84%E5%A7%86_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>霍奎厄姆 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E6%B8%AF%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>橡港市 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%BE%B7%E5%8B%92%E5%B0%94%E9%9F%A6_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>费德勒尔韦 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%AE%A3%E6%98%8E%E6%9C%83</t>
-  </si>
-  <si>
-    <t>世界宣明會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E7%B6%AD%E5%B0%A4_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>貝爾維尤 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E8%92%99</t>
-  </si>
-  <si>
-    <t>雷德蒙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%AF%E4%B8%81_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>阿伯丁 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BC%97%E9%9B%B7%E7%89%B9</t>
-  </si>
-  <si>
-    <t>埃弗雷特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9F%8E_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>三城 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%BB%98%E9%A0%93</t>
-  </si>
-  <si>
-    <t>布雷默頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E6%A3%AE%E6%B8%AF_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>湯森港 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>華盛頓大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>華盛頓州立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>中央華盛頓大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>西北大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9B%BE%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>西雅图大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E4%B8%81%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>聖馬丁學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%EF%BC%8D%E5%A1%94%E7%A7%91%E9%A6%AC%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>西雅圖－塔科馬國際機場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>阿拉斯加航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/5%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E6%AE%B5</t>
-  </si>
-  <si>
-    <t>5号州际公路华盛顿州段</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/205%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF_(%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E%E5%92%8C%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>205号州际公路 (俄勒冈州和华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/405%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>405号州际公路 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/705%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>705号州际公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/101%E5%8F%B7%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%81%93%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E6%AE%B5</t>
-  </si>
-  <si>
-    <t>101号美国国道华盛顿州段</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NFL</t>
-  </si>
-  <si>
-    <t>NFL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B5%B7%E9%B7%B9</t>
-  </si>
-  <si>
-    <t>西雅圖海鷹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B5%B7%E7%81%A3%E8%80%85</t>
-  </si>
-  <si>
-    <t>西雅圖海灣者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>美國職棒大聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MLB</t>
-  </si>
-  <si>
-    <t>MLB</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
-  </si>
-  <si>
-    <t>西雅圖水手</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%9F%BF%E5%B0%BE%E8%9B%87</t>
-  </si>
-  <si>
-    <t>亞利桑那響尾蛇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E9%81%8A%E9%A8%8E%E5%85%B5_(%E6%A3%92%E7%90%83)</t>
-  </si>
-  <si>
-    <t>德克薩斯遊騎兵 (棒球)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B4%9B%E7%A3%AF</t>
-  </si>
-  <si>
-    <t>科羅拉多洛磯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/WNBA</t>
-  </si>
-  <si>
-    <t>WNBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E9%A2%A8%E6%9A%B4</t>
-  </si>
-  <si>
-    <t>西雅圖風暴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E9%87%8E%E7%81%AB</t>
-  </si>
-  <si>
-    <t>2015年華盛頓州野火</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Washington</t>
-  </si>
-  <si>
-    <t>Template talk-Washington</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>华盛顿州城市列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E%E5%9C%B0%E6%96%B9%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>華盛頓州地方政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%90%89%E7%89%B9%E6%B5%B7%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>普吉特海湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%83%A1%E5%AE%89%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖胡安群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E9%AB%98%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>哥伦比亚高原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8D%A1%E8%AB%BE%E6%A0%B9%E7%B8%A3</t>
-  </si>
-  <si>
-    <t>奧卡諾根縣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E6%B2%B3%E5%B3%A1%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>哥伦比亚河峡谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%9F%BA%E9%A9%AC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>亚基马 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BA%B3%E7%A7%91%E7%89%B9%E6%96%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>阿纳科特斯 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%81%B5%E9%A1%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>阿灵顿 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9C%AC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奥本 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%B8%83%E9%87%8C%E5%A5%87%E5%B3%B6_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>班布里奇島 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E7%88%BE%E6%A0%BC%E6%9C%97%E5%BE%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>巴特爾格朗德 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%B0%BC%E6%B9%96_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>邦尼湖 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%BB%98%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>布雷默顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%81%A9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>布里恩 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%BB%98%E6%96%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>卡默斯 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E7%89%B9%E5%8B%92%E5%88%A9%E4%BA%9A_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>森特勒利亚 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%87%E5%B0%BC_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>切尼 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%9F%83%E5%8B%92%E5%A7%86_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>克利埃勒姆 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B8%A9%E9%A1%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>卡温顿 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E6%A2%85%E5%9B%A0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>得梅因 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%9F%8B%E7%B4%8D%E5%A5%87_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>東韋納奇 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%E5%85%B9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>埃德蒙兹 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E4%BC%A6%E6%96%AF%E5%A0%A1_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>埃伦斯堡 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%BA%B3%E5%A7%86%E5%85%8B%E6%B4%9B_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>伊纳姆克洛 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E7%B6%AD%E5%B0%A4_(%E8%8F%AF%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>格蘭德維尤 (華盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%B4%A2_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>凱爾索 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E8%8E%AB%E5%B0%94_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>肯莫尔 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%BA%B3%E5%A8%81%E5%85%8B_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>肯纳威克 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%85%8B%E5%85%B0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>柯克兰 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E8%A5%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>莱西 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%9E%97%E5%85%AC%E5%9C%92%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>湖林公園市 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%B8%9D%E6%96%87%E6%96%AF%E6%B9%96_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>史帝文斯湖 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E5%85%8B%E4%BC%8D%E5%BE%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>莱克伍德 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%87%8C_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>蘭里 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%81_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>林丁 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%BC%8D%E5%BE%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>林伍德 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%B8%83%E9%A0%93_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>麥布頓 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%93%E6%A8%B9%E8%B0%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>楓樹谷 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>马里斯维尔 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E7%91%9F%E5%B3%B6_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>默瑟島 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E5%85%8B%E9%87%8C%E5%85%8B_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>米尔克里克 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E7%BD%97_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>门罗 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E8%A5%BF%E6%B9%96%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>摩西湖市 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%86%9C%E5%B1%B1_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>弗农山 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%92%E7%89%B9%E8%8E%B1%E5%85%8B%E6%B3%B0%E5%8B%92%E6%96%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>芒特莱克泰勒斯 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%A7%91%E5%B0%94%E8%92%82%E5%A5%A5_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>马科尔蒂奥 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B8%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>新港 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%96%AF%E7%A7%91_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>帕斯科 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E5%88%A9%E6%96%AF%E6%B8%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>安吉利斯港 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9F%A5%E5%BE%B7%E6%B8%AF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奥查德港 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BE%85%E7%91%9F_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>普羅瑟 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%B0%94%E6%9B%BC_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>普尔曼 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E9%98%BF%E6%8B%89%E6%99%AE_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>皮阿拉普 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E9%A1%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>伦顿 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%87%E5%85%B0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>里奇兰 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E9%A9%AC%E7%B1%B3%E4%BB%80_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>瑟马米什 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%94%E7%A7%91_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>西塔科 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%BE%B7%E7%BE%85-%E4%BC%8D%E5%88%A9_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>世德羅-伍利 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>細拉 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E7%88%BE%E9%A0%93_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>雪爾頓 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B2%B8%E7%B7%9A%E5%B8%82_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>岸線市 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%A2%E5%9D%8E%E8%B0%B7_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>斯波坎谷 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%B0%BC%E8%B3%BD%E5%BE%B7_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>桑尼賽德 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%9C%AC%E5%B0%BC%E8%A8%B1_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>塔本尼許 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%8B%E7%B6%AD%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>塔克維拉 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A7%86%E6%B2%83%E7%89%B9_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>塔姆沃特 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E5%9F%8E_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>大學城 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B8%95%E6%89%98_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>瓦帕托 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E4%BC%91%E6%88%88_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>瓦休戈 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E5%A5%87%E5%85%B0_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>西里奇兰 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E7%BA%B3%E5%A5%87_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>韦纳奇 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E6%8B%89_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>齊拉 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>亚当斯县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B4%A2%E5%BB%B7%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>阿索廷县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%A0%93%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>本頓縣 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E5%85%B0%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奇兰县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%8B%92%E5%A7%86%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>克拉勒姆县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>哥倫比亞縣 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%88%A9%E8%8C%A8%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>考利茨县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%A0%BC%E6%8B%89%E6%96%AF%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>道格拉斯縣 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E9%87%8C%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>费里县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>富蘭克林縣 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8F%B2%E5%B0%94%E5%BE%B7%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>加菲尔德县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E7%89%B9%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>格蘭特縣 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9B%B7%E6%96%AF%E6%B8%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>格雷斯港县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%85%B0%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>艾兰县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>傑佛遜縣 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%B2%99%E6%99%AE%E7%B8%A3_(%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>基沙普縣 (華盛頓州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%92%82%E5%A1%94%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>基蒂塔斯县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E5%9F%BA%E5%A1%94%E7%89%B9%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>克利基塔特县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>刘易斯县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>林肯县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A3%AE%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>梅森县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8D%A1%E8%AF%BA%E6%A0%B9%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奥卡诺根县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E8%A5%BF%E8%8F%B2%E5%85%8B%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>帕西菲克县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%9E%E5%A4%9A%E9%9B%B7%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>庞多雷县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%83%A1%E5%AE%89%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>圣胡安县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%8D%A1%E5%90%89%E7%89%B9%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>斯卡吉特县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%8D%A1%E6%A2%85%E5%B0%BC%E4%BA%9A%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>斯卡梅尼亚县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>史蒂文斯县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%9F%BA%E4%BA%9A%E5%9D%8E%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>沃基亚坎县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%89%B9%E7%A7%91%E5%A7%86%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>霍特科姆县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E7%89%B9%E6%9B%BC%E5%8E%BF_(%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>惠特曼县 (华盛顿州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2544,7 +2535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3091,7 +3082,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -3523,7 +3514,7 @@
         <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
         <v>9</v>
@@ -3549,10 +3540,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>31</v>
@@ -3578,10 +3569,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
@@ -3607,13 +3598,13 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
       </c>
-      <c r="F37" t="s">
-        <v>74</v>
-      </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -3636,10 +3627,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3665,10 +3656,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3694,10 +3685,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -3723,10 +3714,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -3752,10 +3743,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>18</v>
@@ -3781,10 +3772,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3810,10 +3801,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3839,10 +3830,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3868,10 +3859,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -3897,10 +3888,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3926,10 +3917,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -3955,10 +3946,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>15</v>
@@ -3984,10 +3975,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -4013,10 +4004,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>13</v>
@@ -4042,10 +4033,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4071,10 +4062,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4100,10 +4091,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -4129,10 +4120,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -4158,10 +4149,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4187,10 +4178,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4216,10 +4207,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4245,10 +4236,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4274,10 +4265,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4303,10 +4294,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -4332,10 +4323,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -4361,10 +4352,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>24</v>
@@ -4390,10 +4381,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4419,10 +4410,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4448,10 +4439,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4477,10 +4468,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -4506,10 +4497,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4564,10 +4555,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>5</v>
@@ -4593,10 +4584,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4622,10 +4613,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4651,10 +4642,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -4680,10 +4671,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4709,10 +4700,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>7</v>
@@ -4738,10 +4729,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4767,10 +4758,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4796,10 +4787,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4825,10 +4816,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4854,10 +4845,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4883,10 +4874,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4912,10 +4903,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4941,10 +4932,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4970,10 +4961,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" t="s">
         <v>137</v>
-      </c>
-      <c r="F84" t="s">
-        <v>138</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4999,10 +4990,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5028,10 +5019,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5057,10 +5048,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5086,10 +5077,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5115,10 +5106,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5144,10 +5135,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5173,10 +5164,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5202,10 +5193,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5231,10 +5222,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5260,10 +5251,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5289,10 +5280,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5318,10 +5309,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5347,10 +5338,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5376,10 +5367,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5405,10 +5396,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5434,10 +5425,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -5463,10 +5454,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5492,10 +5483,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5521,10 +5512,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -5550,10 +5541,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5579,10 +5570,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5608,10 +5599,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5637,10 +5628,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5666,10 +5657,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5695,10 +5686,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5724,10 +5715,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5753,10 +5744,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5782,10 +5773,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5811,10 +5802,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5840,10 +5831,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5869,10 +5860,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5898,10 +5889,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5927,10 +5918,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5956,10 +5947,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5985,10 +5976,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6014,10 +6005,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6043,10 +6034,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6072,10 +6063,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6101,10 +6092,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6130,10 +6121,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6159,10 +6150,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6188,10 +6179,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6217,10 +6208,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6246,10 +6237,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6275,10 +6266,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6304,10 +6295,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6333,10 +6324,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6362,10 +6353,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6391,10 +6382,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6420,10 +6411,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>12</v>
@@ -6449,10 +6440,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6478,10 +6469,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>162</v>
+      </c>
+      <c r="F136" t="s">
         <v>163</v>
-      </c>
-      <c r="F136" t="s">
-        <v>164</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -6507,10 +6498,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6536,10 +6527,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6565,10 +6556,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>7</v>
@@ -6594,10 +6585,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6623,10 +6614,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6652,10 +6643,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6681,10 +6672,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6710,10 +6701,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6739,10 +6730,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>280</v>
+      </c>
+      <c r="F145" t="s">
         <v>281</v>
-      </c>
-      <c r="F145" t="s">
-        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6768,10 +6759,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>246</v>
+      </c>
+      <c r="F146" t="s">
         <v>247</v>
-      </c>
-      <c r="F146" t="s">
-        <v>248</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6797,10 +6788,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6826,10 +6817,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6855,10 +6846,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6884,10 +6875,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6913,10 +6904,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -6942,10 +6933,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6971,10 +6962,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7000,10 +6991,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>12</v>
@@ -7029,10 +7020,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7058,10 +7049,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>162</v>
+      </c>
+      <c r="F156" t="s">
         <v>163</v>
-      </c>
-      <c r="F156" t="s">
-        <v>164</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7087,10 +7078,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7116,10 +7107,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -7145,10 +7136,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7174,10 +7165,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7203,10 +7194,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>5</v>
@@ -7232,10 +7223,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7261,10 +7252,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7290,10 +7281,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7319,10 +7310,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7348,10 +7339,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7377,10 +7368,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7406,10 +7397,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7435,10 +7426,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7464,10 +7455,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7493,10 +7484,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7522,10 +7513,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7551,10 +7542,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7580,10 +7571,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7609,10 +7600,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7638,10 +7629,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7667,10 +7658,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7696,10 +7687,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7725,10 +7716,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7754,10 +7745,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7783,10 +7774,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7812,10 +7803,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7841,10 +7832,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7870,10 +7861,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7899,10 +7890,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7928,10 +7919,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7957,10 +7948,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7986,10 +7977,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>88</v>
+      </c>
+      <c r="F188" t="s">
         <v>89</v>
-      </c>
-      <c r="F188" t="s">
-        <v>90</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8015,10 +8006,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8044,10 +8035,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -8073,10 +8064,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>9</v>
@@ -8102,10 +8093,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8131,10 +8122,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8160,10 +8151,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8189,10 +8180,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8218,10 +8209,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8247,10 +8238,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>190</v>
+      </c>
+      <c r="F197" t="s">
         <v>191</v>
-      </c>
-      <c r="F197" t="s">
-        <v>192</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8276,10 +8267,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8305,10 +8296,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>162</v>
+      </c>
+      <c r="F199" t="s">
         <v>163</v>
-      </c>
-      <c r="F199" t="s">
-        <v>164</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8334,10 +8325,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -8363,10 +8354,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8392,10 +8383,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8421,10 +8412,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8450,10 +8441,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8479,10 +8470,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8508,10 +8499,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8537,10 +8528,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>268</v>
+      </c>
+      <c r="F207" t="s">
         <v>269</v>
-      </c>
-      <c r="F207" t="s">
-        <v>270</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8566,10 +8557,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8595,10 +8586,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8624,10 +8615,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8653,10 +8644,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8682,10 +8673,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8711,10 +8702,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8740,10 +8731,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8769,10 +8760,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8798,10 +8789,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8827,10 +8818,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8856,10 +8847,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8885,10 +8876,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8914,10 +8905,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8943,10 +8934,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8972,10 +8963,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9001,10 +8992,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9030,10 +9021,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9059,10 +9050,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9088,10 +9079,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9117,10 +9108,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9146,10 +9137,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9175,10 +9166,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9204,10 +9195,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9233,10 +9224,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9262,10 +9253,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9291,10 +9282,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9320,10 +9311,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9349,10 +9340,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9378,10 +9369,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9407,10 +9398,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9436,10 +9427,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9465,10 +9456,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9494,10 +9485,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9523,10 +9514,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9552,10 +9543,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9610,10 +9601,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9639,10 +9630,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9668,10 +9659,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9697,10 +9688,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9726,10 +9717,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9755,10 +9746,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9784,10 +9775,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>250</v>
+      </c>
+      <c r="F250" t="s">
         <v>251</v>
-      </c>
-      <c r="F250" t="s">
-        <v>252</v>
       </c>
       <c r="G250" t="n">
         <v>11</v>
@@ -9813,10 +9804,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9842,10 +9833,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9871,10 +9862,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9900,10 +9891,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9929,10 +9920,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9958,10 +9949,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9987,10 +9978,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10016,10 +10007,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10045,10 +10036,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10074,10 +10065,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10103,10 +10094,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10132,10 +10123,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10161,10 +10152,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10190,10 +10181,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10219,10 +10210,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10248,10 +10239,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10277,10 +10268,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10306,10 +10297,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F268" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10335,10 +10326,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F269" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10364,10 +10355,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F270" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10393,10 +10384,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F271" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10422,10 +10413,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F272" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10451,10 +10442,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -10480,10 +10471,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10509,10 +10500,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>180</v>
+      </c>
+      <c r="F275" t="s">
         <v>181</v>
-      </c>
-      <c r="F275" t="s">
-        <v>182</v>
       </c>
       <c r="G275" t="n">
         <v>4</v>
@@ -10538,10 +10529,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G276" t="n">
         <v>15</v>
@@ -10567,10 +10558,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10596,10 +10587,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10625,10 +10616,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10654,10 +10645,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10683,10 +10674,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10712,10 +10703,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10741,10 +10732,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10770,10 +10761,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10799,10 +10790,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10828,10 +10819,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>166</v>
+      </c>
+      <c r="F286" t="s">
         <v>167</v>
-      </c>
-      <c r="F286" t="s">
-        <v>168</v>
       </c>
       <c r="G286" t="n">
         <v>6</v>
@@ -10857,10 +10848,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F287" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10886,10 +10877,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F288" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10915,10 +10906,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F289" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10944,10 +10935,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F290" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10973,10 +10964,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F291" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11002,10 +10993,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F292" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11031,10 +11022,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F293" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G293" t="n">
         <v>3</v>
@@ -11060,10 +11051,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F294" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11089,10 +11080,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11118,10 +11109,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>172</v>
+      </c>
+      <c r="F296" t="s">
         <v>173</v>
-      </c>
-      <c r="F296" t="s">
-        <v>174</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -11147,10 +11138,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F297" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11176,10 +11167,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11205,10 +11196,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F299" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11234,10 +11225,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>168</v>
+      </c>
+      <c r="F300" t="s">
         <v>169</v>
-      </c>
-      <c r="F300" t="s">
-        <v>170</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11263,10 +11254,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F301" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11292,10 +11283,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>174</v>
+      </c>
+      <c r="F302" t="s">
         <v>175</v>
-      </c>
-      <c r="F302" t="s">
-        <v>176</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11321,10 +11312,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F303" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11350,10 +11341,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F304" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11379,10 +11370,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F305" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11408,10 +11399,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F306" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11437,10 +11428,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11466,10 +11457,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F308" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11495,10 +11486,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11524,10 +11515,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F310" t="s">
-        <v>586</v>
+        <v>205</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11553,10 +11544,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F311" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11582,10 +11573,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F312" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11611,10 +11602,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F313" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11640,10 +11631,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F314" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G314" t="n">
         <v>2</v>
@@ -11669,10 +11660,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F315" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11698,10 +11689,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F316" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11727,10 +11718,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F317" t="s">
-        <v>600</v>
+        <v>81</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11756,10 +11747,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F318" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11785,10 +11776,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F319" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11814,10 +11805,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F320" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11843,10 +11834,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F321" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11872,10 +11863,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F322" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11901,10 +11892,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F323" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11930,10 +11921,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F324" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11959,10 +11950,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F325" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11988,10 +11979,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F326" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12017,10 +12008,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F327" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12046,10 +12037,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F328" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12075,10 +12066,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F329" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12104,10 +12095,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F330" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12133,10 +12124,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>226</v>
+      </c>
+      <c r="F331" t="s">
         <v>227</v>
-      </c>
-      <c r="F331" t="s">
-        <v>228</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12162,10 +12153,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F332" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12191,10 +12182,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F333" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12220,10 +12211,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F334" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12249,10 +12240,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F335" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12278,10 +12269,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F336" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12307,10 +12298,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F337" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12336,10 +12327,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F338" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12365,10 +12356,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F339" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12394,10 +12385,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F340" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12423,10 +12414,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F341" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12452,10 +12443,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F342" t="s">
-        <v>648</v>
+        <v>79</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12481,10 +12472,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F343" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12510,10 +12501,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F344" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12539,10 +12530,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F345" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12568,10 +12559,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F346" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12597,10 +12588,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F347" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12626,10 +12617,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F348" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12655,10 +12646,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F349" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12684,10 +12675,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F350" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12713,10 +12704,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F351" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -12742,10 +12733,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F352" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12771,10 +12762,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12800,10 +12791,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F354" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12829,10 +12820,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12858,10 +12849,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12887,10 +12878,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12916,10 +12907,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12945,10 +12936,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F359" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12974,10 +12965,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13003,10 +12994,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13032,10 +13023,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F362" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13061,10 +13052,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F363" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13090,10 +13081,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F364" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13119,10 +13110,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F365" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13148,10 +13139,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F366" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13177,10 +13168,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F367" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13206,10 +13197,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F368" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13235,10 +13226,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F369" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13264,10 +13255,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F370" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13293,10 +13284,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F371" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13322,10 +13313,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F372" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13351,10 +13342,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F373" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13380,10 +13371,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F374" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13409,10 +13400,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F375" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13438,10 +13429,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F376" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G376" t="n">
         <v>3</v>
@@ -13467,10 +13458,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F377" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13496,10 +13487,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F378" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13525,10 +13516,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F379" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13554,10 +13545,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F380" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13583,10 +13574,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F381" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13595,6 +13586,64 @@
         <v>4</v>
       </c>
       <c r="I381" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>381</v>
+      </c>
+      <c r="E382" t="s">
+        <v>721</v>
+      </c>
+      <c r="F382" t="s">
+        <v>722</v>
+      </c>
+      <c r="G382" t="n">
+        <v>12</v>
+      </c>
+      <c r="H382" t="s">
+        <v>4</v>
+      </c>
+      <c r="I382" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1</v>
+      </c>
+      <c r="D383" t="n">
+        <v>382</v>
+      </c>
+      <c r="E383" t="s">
+        <v>721</v>
+      </c>
+      <c r="F383" t="s">
+        <v>723</v>
+      </c>
+      <c r="G383" t="n">
+        <v>1</v>
+      </c>
+      <c r="H383" t="s">
+        <v>4</v>
+      </c>
+      <c r="I383" t="n">
         <v>3</v>
       </c>
     </row>
